--- a/resources/GIL3/notes_aprs.xlsx
+++ b/resources/GIL3/notes_aprs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GIL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13829BDB-1F28-4421-9DBC-6A5AB281EE6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A75DB6-E6C3-4289-8540-2EDCB08B0E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>CNE</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Blacket</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
   <si>
     <t>Note_GIL51</t>
@@ -687,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,10 +698,9 @@
     <col min="4" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,34 +711,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>236</v>
       </c>
@@ -770,12 +763,8 @@
       <c r="K2">
         <v>12</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L48" si="0">AVERAGE(D2:K2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>237</v>
       </c>
@@ -803,12 +792,8 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>238</v>
       </c>
@@ -836,12 +821,8 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>239</v>
       </c>
@@ -869,12 +850,8 @@
       <c r="K5">
         <v>12</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>240</v>
       </c>
@@ -902,12 +879,8 @@
       <c r="K6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>241</v>
       </c>
@@ -935,12 +908,8 @@
       <c r="K7">
         <v>12</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>242</v>
       </c>
@@ -968,12 +937,8 @@
       <c r="K8">
         <v>12</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>243</v>
       </c>
@@ -1001,12 +966,8 @@
       <c r="K9">
         <v>12</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>244</v>
       </c>
@@ -1034,12 +995,8 @@
       <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>245</v>
       </c>
@@ -1067,12 +1024,8 @@
       <c r="K11">
         <v>12</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>246</v>
       </c>
@@ -1100,12 +1053,8 @@
       <c r="K12">
         <v>12</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>247</v>
       </c>
@@ -1133,12 +1082,8 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>248</v>
       </c>
@@ -1166,12 +1111,8 @@
       <c r="K14">
         <v>12</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>249</v>
       </c>
@@ -1199,12 +1140,8 @@
       <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>250</v>
       </c>
@@ -1232,12 +1169,8 @@
       <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>251</v>
       </c>
@@ -1265,12 +1198,8 @@
       <c r="K17">
         <v>12</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>252</v>
       </c>
@@ -1298,12 +1227,8 @@
       <c r="K18">
         <v>12</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>253</v>
       </c>
@@ -1331,12 +1256,8 @@
       <c r="K19">
         <v>12</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>254</v>
       </c>
@@ -1364,12 +1285,8 @@
       <c r="K20">
         <v>12</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>255</v>
       </c>
@@ -1397,12 +1314,8 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>256</v>
       </c>
@@ -1430,12 +1343,8 @@
       <c r="K22">
         <v>12</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>257</v>
       </c>
@@ -1463,12 +1372,8 @@
       <c r="K23">
         <v>12</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>258</v>
       </c>
@@ -1496,12 +1401,8 @@
       <c r="K24">
         <v>12</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>259</v>
       </c>
@@ -1529,12 +1430,8 @@
       <c r="K25">
         <v>12</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>260</v>
       </c>
@@ -1562,12 +1459,8 @@
       <c r="K26">
         <v>12</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>261</v>
       </c>
@@ -1595,12 +1488,8 @@
       <c r="K27">
         <v>12</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>262</v>
       </c>
@@ -1628,12 +1517,8 @@
       <c r="K28">
         <v>12</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>263</v>
       </c>
@@ -1661,12 +1546,8 @@
       <c r="K29">
         <v>12</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>264</v>
       </c>
@@ -1694,12 +1575,8 @@
       <c r="K30">
         <v>12</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>265</v>
       </c>
@@ -1727,12 +1604,8 @@
       <c r="K31">
         <v>12</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>266</v>
       </c>
@@ -1760,12 +1633,8 @@
       <c r="K32">
         <v>12</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>267</v>
       </c>
@@ -1793,12 +1662,8 @@
       <c r="K33">
         <v>12</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>268</v>
       </c>
@@ -1826,12 +1691,8 @@
       <c r="K34">
         <v>12</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>269</v>
       </c>
@@ -1859,12 +1720,8 @@
       <c r="K35">
         <v>12</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>270</v>
       </c>
@@ -1892,12 +1749,8 @@
       <c r="K36">
         <v>12</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>271</v>
       </c>
@@ -1925,12 +1778,8 @@
       <c r="K37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>272</v>
       </c>
@@ -1958,12 +1807,8 @@
       <c r="K38">
         <v>12</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>273</v>
       </c>
@@ -1991,12 +1836,8 @@
       <c r="K39">
         <v>12</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>274</v>
       </c>
@@ -2024,12 +1865,8 @@
       <c r="K40">
         <v>12</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>275</v>
       </c>
@@ -2057,12 +1894,8 @@
       <c r="K41">
         <v>12</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>276</v>
       </c>
@@ -2090,12 +1923,8 @@
       <c r="K42">
         <v>12</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>277</v>
       </c>
@@ -2123,12 +1952,8 @@
       <c r="K43">
         <v>12</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>278</v>
       </c>
@@ -2156,12 +1981,8 @@
       <c r="K44">
         <v>12</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>279</v>
       </c>
@@ -2189,12 +2010,8 @@
       <c r="K45">
         <v>12</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>280</v>
       </c>
@@ -2222,12 +2039,8 @@
       <c r="K46">
         <v>12</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>281</v>
       </c>
@@ -2255,12 +2068,8 @@
       <c r="K47">
         <v>12</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>282</v>
       </c>
@@ -2286,10 +2095,6 @@
         <v>12</v>
       </c>
       <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
